--- a/biology/Botanique/Anacamptis/Anacamptis.xlsx
+++ b/biology/Botanique/Anacamptis/Anacamptis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anacamptis est un genre d'orchidées terrestres européennes.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anacamptis vient du grec anakampteïn, courber, en référence aux sépales arquées vers l'intérieur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anacamptis vient du grec anakampteïn, courber, en référence aux sépales arquées vers l'intérieur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre ne comprenait autrefois qu'une seule espèce : l'orchis pyramidal, Anacamptis pyramidalis. Depuis 1997 (Bateman, Pridgeon &amp; Chase), plusieurs espèces autrefois classées dans le genre Orchis lui ont été rattachées[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce genre ne comprenait autrefois qu'une seule espèce : l'orchis pyramidal, Anacamptis pyramidalis. Depuis 1997 (Bateman, Pridgeon &amp; Chase), plusieurs espèces autrefois classées dans le genre Orchis lui ont été rattachées :
 Anacamptis champagneuxii, orchis de Champagneux
 Anacamptis collina, orchis des collines
 Anacamptis coriophora, orchis punaise
@@ -582,9 +598,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 février 2018)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 février 2018) :
 Anacamptis alata (Fleury) H.Kretzschmar, Eccarius &amp; H.Dietr.
 Anacamptis alatoides (Gadeceau) H.Kretzschmar, Eccarius &amp; H.Dietr.
 Anacamptis boryi (Rchb.f.) R.M.Bateman, Pridgeon &amp; M.W.Chase
@@ -619,7 +637,7 @@
 Anacamptis simorrensis (E.G.Camus) H.Kretzschmar, Eccarius &amp; H.Dietr.
 Anacamptis timbali (Velen.) H.Kretzschmar, Eccarius &amp; H.Dietr.
 Anacamptis van-lookenii (C.Bernard &amp; G.Fabre) H.Kretzschmar, Eccarius &amp; H.Dietr.
-Selon Tropicos                                           (20 février 2018)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 février 2018) (Attention liste brute contenant possiblement des synonymes) :
 Anacamptis boryi (Rchb. f.) R.M. Bateman, Pridgeon &amp; M.W. Chase
 Anacamptis brachystachys (d'Urv.) Nyman
 Anacamptis brancifortii Lindl.
